--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2882.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2882.xlsx
@@ -354,7 +354,7 @@
         <v>1.845394339687048</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.848255223163652</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2882.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2882.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205068554336237</v>
+        <v>2.365760326385498</v>
       </c>
       <c r="B1">
-        <v>1.845394339687048</v>
+        <v>2.620818138122559</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.811779260635376</v>
       </c>
       <c r="D1">
-        <v>1.848255223163652</v>
+        <v>3.276329755783081</v>
       </c>
       <c r="E1">
-        <v>1.203780856380846</v>
+        <v>0.8088361620903015</v>
       </c>
     </row>
   </sheetData>
